--- a/Timetable.xlsx
+++ b/Timetable.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="48">
   <si>
     <t xml:space="preserve">Февраль</t>
   </si>
@@ -46,7 +46,7 @@
     <t xml:space="preserve">вс</t>
   </si>
   <si>
-    <t xml:space="preserve">13 фев</t>
+    <t xml:space="preserve">11 фев</t>
   </si>
   <si>
     <t xml:space="preserve">В</t>
@@ -55,7 +55,7 @@
     <t xml:space="preserve">Знакомство с многомерными данными</t>
   </si>
   <si>
-    <t xml:space="preserve">17 фев</t>
+    <t xml:space="preserve">15 фев</t>
   </si>
   <si>
     <t xml:space="preserve">М</t>
@@ -64,13 +64,16 @@
     <t xml:space="preserve">nMDS, envfit, ordisurf </t>
   </si>
   <si>
-    <t xml:space="preserve">20 фев</t>
+    <t xml:space="preserve">18 фев</t>
   </si>
   <si>
     <t xml:space="preserve">Связь между наборами данных. Тест Мантела</t>
   </si>
   <si>
-    <t xml:space="preserve">27 фев</t>
+    <t xml:space="preserve">15.02 почему-то третья и четвертая пара</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 фев</t>
   </si>
   <si>
     <t xml:space="preserve">ANOSIM, SIMPER</t>
@@ -79,25 +82,25 @@
     <t xml:space="preserve">Март</t>
   </si>
   <si>
-    <t xml:space="preserve">2 мар</t>
+    <t xml:space="preserve">1 мар</t>
   </si>
   <si>
     <t xml:space="preserve">PERMANOVA </t>
   </si>
   <si>
-    <t xml:space="preserve">16 мар</t>
+    <t xml:space="preserve">15 мар</t>
   </si>
   <si>
     <t xml:space="preserve">Кластерный анализ </t>
   </si>
   <si>
-    <t xml:space="preserve">23 мар</t>
+    <t xml:space="preserve">22 мар</t>
   </si>
   <si>
     <t xml:space="preserve">Основы линейной алгебры. SVD</t>
   </si>
   <si>
-    <t xml:space="preserve">30 мар</t>
+    <t xml:space="preserve">29 мар</t>
   </si>
   <si>
     <t xml:space="preserve">PCA</t>
@@ -106,22 +109,61 @@
     <t xml:space="preserve">Апрель</t>
   </si>
   <si>
-    <t xml:space="preserve">6 апр</t>
+    <t xml:space="preserve">5 апр</t>
   </si>
   <si>
     <t xml:space="preserve">RDA</t>
   </si>
   <si>
-    <t xml:space="preserve">13 апр</t>
+    <t xml:space="preserve">12 апр</t>
   </si>
   <si>
     <t xml:space="preserve">CA</t>
   </si>
   <si>
-    <t xml:space="preserve">20 апр</t>
+    <t xml:space="preserve">19 апр</t>
   </si>
   <si>
     <t xml:space="preserve">CCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nMDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 фев</t>
+  </si>
+  <si>
+    <t xml:space="preserve">envfit, ordisurf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 мар</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 мар</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 мар</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основы линейной алгебры. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 мар</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SVD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 апр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 апр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Геометрическая морфометрия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 апр</t>
   </si>
 </sst>
 </file>
@@ -182,7 +224,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,13 +234,37 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF99"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFF70"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF9900"/>
-        <bgColor rgb="FFFFCC00"/>
+        <bgColor rgb="FFFFB029"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2B2B2"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF70"/>
+        <bgColor rgb="FFFFFF99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF59BA"/>
+        <bgColor rgb="FFFF99CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB029"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
   </fills>
@@ -236,7 +302,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -273,14 +339,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -297,54 +355,86 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -362,14 +452,14 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFB2B2B2"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFFFFF70"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FFFF59BA"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
@@ -391,7 +481,7 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFFB029"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666666"/>
@@ -410,17 +500,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q1048576"/>
+  <dimension ref="A1:W1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O17" activeCellId="0" sqref="O17"/>
+      <selection pane="topLeft" activeCell="J17" activeCellId="0" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="6.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="1" width="4.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="3.89"/>
@@ -429,10 +519,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="2.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="42.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="4.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="6.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1015" min="16" style="1" width="6.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1016" min="1016" style="3" width="6.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1017" style="3" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="6.54"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1015" min="16" style="1" width="6.54"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1016" min="1016" style="3" width="6.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1017" style="3" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -450,6 +540,15 @@
       <c r="K1" s="0"/>
       <c r="L1" s="0"/>
       <c r="M1" s="0"/>
+      <c r="O1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
@@ -486,70 +585,112 @@
       <c r="L2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="8" t="s">
         <v>10</v>
       </c>
+      <c r="O2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="n">
+      <c r="A3" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="B3" s="10" t="n">
+      <c r="D3" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="C3" s="10" t="n">
+      <c r="E3" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="D3" s="11" t="n">
+      <c r="F3" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="E3" s="12" t="n">
+      <c r="G3" s="10" t="n">
         <v>14</v>
       </c>
-      <c r="F3" s="10" t="n">
-        <v>15</v>
-      </c>
-      <c r="G3" s="10" t="n">
-        <v>16</v>
-      </c>
       <c r="H3" s="3"/>
-      <c r="I3" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="13" t="s">
+      <c r="I3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="11" t="s">
         <v>12</v>
       </c>
       <c r="L3" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="8" t="s">
         <v>13</v>
       </c>
+      <c r="O3" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="P3" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R3" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="S3" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="T3" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="U3" s="10" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="n">
+      <c r="A4" s="12" t="n">
+        <v>15</v>
+      </c>
+      <c r="B4" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="C4" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="B4" s="10" t="n">
+      <c r="D4" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="C4" s="10" t="n">
+      <c r="E4" s="10" t="n">
         <v>19</v>
       </c>
-      <c r="D4" s="11" t="n">
+      <c r="F4" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="E4" s="12" t="n">
+      <c r="G4" s="6" t="n">
         <v>21</v>
-      </c>
-      <c r="F4" s="10" t="n">
-        <v>22</v>
-      </c>
-      <c r="G4" s="10" t="n">
-        <v>23</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="7" t="s">
@@ -564,59 +705,106 @@
       <c r="L4" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="8" t="s">
         <v>15</v>
       </c>
       <c r="N4" s="3"/>
+      <c r="O4" s="13" t="n">
+        <v>15</v>
+      </c>
+      <c r="P4" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="R4" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="S4" s="10" t="n">
+        <v>19</v>
+      </c>
+      <c r="T4" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="U4" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="n">
+      <c r="A5" s="14" t="n">
+        <v>22</v>
+      </c>
+      <c r="B5" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="C5" s="6" t="n">
         <v>24</v>
       </c>
-      <c r="B5" s="10" t="n">
+      <c r="D5" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="C5" s="10" t="n">
+      <c r="E5" s="10" t="n">
         <v>26</v>
       </c>
-      <c r="D5" s="16" t="n">
+      <c r="F5" s="6" t="n">
         <v>27</v>
       </c>
-      <c r="E5" s="12" t="n">
+      <c r="G5" s="6" t="n">
         <v>28</v>
       </c>
-      <c r="F5" s="10" t="n">
-        <v>29</v>
-      </c>
-      <c r="G5" s="10"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>12</v>
+      <c r="I5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="L5" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="M5" s="9" t="s">
-        <v>17</v>
+      <c r="M5" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="N5" s="3"/>
+      <c r="O5" s="17" t="n">
+        <v>22</v>
+      </c>
+      <c r="P5" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q5" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="R5" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="S5" s="10" t="n">
+        <v>26</v>
+      </c>
+      <c r="T5" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="U5" s="6" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
+      <c r="A6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
       <c r="H6" s="3"/>
       <c r="I6" s="0"/>
       <c r="J6" s="0"/>
@@ -624,163 +812,240 @@
       <c r="L6" s="0"/>
       <c r="M6" s="0"/>
       <c r="N6" s="3"/>
+      <c r="O6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="19" t="s">
+      <c r="A7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="19" t="s">
+      <c r="D7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="10"/>
+      <c r="H7" s="6"/>
       <c r="I7" s="0"/>
       <c r="J7" s="0"/>
       <c r="K7" s="0"/>
       <c r="L7" s="0"/>
       <c r="M7" s="0"/>
       <c r="N7" s="3"/>
+      <c r="O7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="10"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="0"/>
       <c r="J8" s="0"/>
       <c r="K8" s="0"/>
       <c r="L8" s="0"/>
       <c r="M8" s="0"/>
       <c r="N8" s="3"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="n">
+      <c r="A9" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B9" s="10" t="n">
+      <c r="C9" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="C9" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="D9" s="10" t="n">
+      <c r="D9" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="E9" s="10" t="n">
+      <c r="F9" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="F9" s="10" t="n">
+      <c r="G9" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="G9" s="10" t="n">
-        <v>8</v>
-      </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="13" t="s">
+      <c r="H9" s="6"/>
+      <c r="I9" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="11" t="s">
         <v>12</v>
       </c>
       <c r="L9" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="M9" s="9" t="s">
-        <v>20</v>
+      <c r="M9" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="N9" s="3"/>
+      <c r="O9" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="U9" s="6" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15" t="n">
+      <c r="A10" s="18" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="n">
+      <c r="C10" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="C10" s="10" t="n">
+      <c r="D10" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="D10" s="10" t="n">
+      <c r="E10" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="E10" s="10" t="n">
+      <c r="F10" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="F10" s="10" t="n">
+      <c r="G10" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="G10" s="10" t="n">
-        <v>15</v>
-      </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="J10" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="13" t="s">
+      <c r="H10" s="6"/>
+      <c r="I10" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="11" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="M10" s="9" t="s">
-        <v>22</v>
+      <c r="M10" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="N10" s="3"/>
+      <c r="O10" s="18" t="n">
+        <v>8</v>
+      </c>
+      <c r="P10" s="20" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q10" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R10" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="S10" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="T10" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="U10" s="6" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="n">
+      <c r="A11" s="12" t="n">
+        <v>15</v>
+      </c>
+      <c r="B11" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="B11" s="10" t="n">
+      <c r="C11" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="C11" s="10" t="n">
+      <c r="D11" s="6" t="n">
         <v>18</v>
       </c>
-      <c r="D11" s="10" t="n">
+      <c r="E11" s="6" t="n">
         <v>19</v>
       </c>
-      <c r="E11" s="10" t="n">
+      <c r="F11" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="F11" s="10" t="n">
+      <c r="G11" s="6" t="n">
         <v>21</v>
       </c>
-      <c r="G11" s="10" t="n">
-        <v>22</v>
-      </c>
-      <c r="H11" s="10"/>
+      <c r="H11" s="6"/>
       <c r="I11" s="7" t="s">
         <v>1</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>9</v>
@@ -788,83 +1053,131 @@
       <c r="L11" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="M11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="13" t="n">
+        <v>15</v>
+      </c>
+      <c r="P11" s="20" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q11" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="R11" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="S11" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="T11" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="U11" s="6" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="21" t="n">
+        <v>22</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="C12" s="6" t="n">
         <v>24</v>
       </c>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="22" t="n">
-        <v>23</v>
-      </c>
-      <c r="B12" s="10" t="n">
-        <v>24</v>
-      </c>
-      <c r="C12" s="10" t="n">
+      <c r="D12" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="D12" s="10" t="n">
+      <c r="E12" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="E12" s="10" t="n">
+      <c r="F12" s="6" t="n">
         <v>27</v>
       </c>
-      <c r="F12" s="10" t="n">
+      <c r="G12" s="6" t="n">
         <v>28</v>
       </c>
-      <c r="G12" s="10" t="n">
-        <v>29</v>
-      </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="J12" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="13" t="s">
+      <c r="H12" s="6"/>
+      <c r="I12" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="11" t="s">
         <v>12</v>
       </c>
       <c r="L12" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="M12" s="9" t="s">
+      <c r="M12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" s="3"/>
+      <c r="O12" s="22" t="n">
+        <v>22</v>
+      </c>
+      <c r="P12" s="23" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q12" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="R12" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="S12" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="N12" s="20"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
+      <c r="T12" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="U12" s="6" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14" t="n">
+      <c r="A13" s="12" t="n">
+        <v>29</v>
+      </c>
+      <c r="B13" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="B13" s="10" t="n">
+      <c r="C13" s="6" t="n">
         <v>31</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="13" t="n">
+        <v>29</v>
+      </c>
+      <c r="P13" s="23" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q13" s="6" t="n">
+        <v>31</v>
+      </c>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -872,16 +1185,21 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="10"/>
+      <c r="H14" s="6"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
+      <c r="O14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
@@ -905,50 +1223,66 @@
       <c r="G15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="13" t="s">
+      <c r="H15" s="6"/>
+      <c r="I15" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="11" t="s">
         <v>12</v>
       </c>
       <c r="L15" s="8" t="n">
         <v>9</v>
       </c>
-      <c r="M15" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
+      <c r="M15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="10" t="n">
+      <c r="A16" s="6"/>
+      <c r="B16" s="0"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="E16" s="10" t="n">
+      <c r="F16" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="F16" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="G16" s="10" t="n">
-        <v>5</v>
-      </c>
+      <c r="G16" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="H16" s="6"/>
       <c r="I16" s="7" t="s">
         <v>1</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K16" s="24" t="s">
         <v>9</v>
@@ -956,41 +1290,53 @@
       <c r="L16" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="M16" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
+      <c r="M16" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O16" s="6"/>
+      <c r="P16" s="0"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="T16" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="U16" s="6" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14" t="n">
+      <c r="A17" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B17" s="10" t="n">
+      <c r="C17" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="C17" s="10" t="n">
+      <c r="D17" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="D17" s="10" t="n">
+      <c r="E17" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="E17" s="10" t="n">
+      <c r="F17" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="F17" s="10" t="n">
+      <c r="G17" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="G17" s="10" t="n">
-        <v>12</v>
-      </c>
+      <c r="H17" s="6"/>
       <c r="I17" s="7" t="s">
         <v>1</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K17" s="24" t="s">
         <v>9</v>
@@ -998,80 +1344,806 @@
       <c r="L17" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="M17" s="9" t="s">
+      <c r="M17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="O17" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="P17" s="23" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q17" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="R17" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="S17" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="T17" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="U17" s="6" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9" t="n">
+        <v>12</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C18" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="O18" s="13" t="n">
+        <v>12</v>
+      </c>
+      <c r="P18" s="23" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q18" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="R18" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="S18" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="T18" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="U18" s="6" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9" t="n">
+        <v>19</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>22</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="O19" s="13" t="n">
+        <v>19</v>
+      </c>
+      <c r="P19" s="23" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q19" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="R19" s="6" t="n">
+        <v>22</v>
+      </c>
+      <c r="S19" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="T19" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="U19" s="6" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>28</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>29</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="O20" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="P20" s="23" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q20" s="6" t="n">
+        <v>28</v>
+      </c>
+      <c r="R20" s="6" t="n">
+        <v>29</v>
+      </c>
+      <c r="S20" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="0"/>
+      <c r="M22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="8"/>
+      <c r="L23" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B24" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C24" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D24" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="E24" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="G24" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" s="8"/>
+      <c r="L24" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="M24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="25" t="n">
+        <v>15</v>
+      </c>
+      <c r="B25" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D25" s="25" t="n">
+        <v>18</v>
+      </c>
+      <c r="E25" s="10" t="n">
+        <v>19</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" s="8"/>
+      <c r="L25" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="27" t="n">
+        <v>22</v>
+      </c>
+      <c r="B26" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" s="27" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" s="10" t="n">
+        <v>26</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="G26" s="6" t="n">
+        <v>28</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="K26" s="0"/>
+      <c r="L26" s="28" t="n">
+        <v>4</v>
+      </c>
+      <c r="M26" s="29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="I27" s="0"/>
+      <c r="J27" s="0"/>
+      <c r="K27" s="0"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="0"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="8"/>
+      <c r="L28" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="I29" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="K29" s="0"/>
+      <c r="L29" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D30" s="25" t="n">
+        <v>4</v>
+      </c>
+      <c r="E30" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F30" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G30" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K30" s="8"/>
+      <c r="L30" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="18" t="n">
+        <v>8</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D31" s="27" t="n">
+        <v>11</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="F31" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="G31" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J31" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="K31" s="8"/>
+      <c r="L31" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="M31" s="0"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="27" t="n">
+        <v>15</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D32" s="27" t="n">
+        <v>18</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="F32" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="G32" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="K32" s="0"/>
+      <c r="L32" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="M32" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="30" t="n">
+        <v>22</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="C33" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="D33" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="F33" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="G33" s="6" t="n">
+        <v>28</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K33" s="8"/>
+      <c r="L33" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="27" t="n">
+        <v>29</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C34" s="6" t="n">
+        <v>31</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="I34" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="K34" s="0"/>
+      <c r="L34" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="M34" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="I35" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J35" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="K35" s="8"/>
+      <c r="L35" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="8"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="6"/>
+      <c r="B37" s="0"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F37" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G37" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K37" s="8"/>
+      <c r="L37" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="27" t="n">
+        <v>5</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C38" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D38" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F38" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G38" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K38" s="8"/>
+      <c r="L38" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="M38" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="27" t="n">
+        <v>12</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C39" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="D39" s="13" t="n">
+        <v>15</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="F39" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="G39" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="K39" s="0"/>
+      <c r="L39" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="13" t="n">
+        <v>19</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C40" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="D40" s="6" t="n">
+        <v>22</v>
+      </c>
+      <c r="E40" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="F40" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="G40" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K40" s="26"/>
+      <c r="L40" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="M40" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="C41" s="6" t="n">
+        <v>28</v>
+      </c>
+      <c r="D41" s="6" t="n">
+        <v>29</v>
+      </c>
+      <c r="E41" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="I41" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="K41" s="0"/>
+      <c r="L41" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="M41" s="0"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I42" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J42" s="8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="n">
-        <v>13</v>
-      </c>
-      <c r="B18" s="10" t="n">
-        <v>14</v>
-      </c>
-      <c r="C18" s="10" t="n">
-        <v>15</v>
-      </c>
-      <c r="D18" s="10" t="n">
-        <v>16</v>
-      </c>
-      <c r="E18" s="10" t="n">
-        <v>17</v>
-      </c>
-      <c r="F18" s="10" t="n">
+      <c r="K42" s="26"/>
+      <c r="L42" s="6" t="n">
         <v>18</v>
       </c>
-      <c r="G18" s="10" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="n">
-        <v>20</v>
-      </c>
-      <c r="B19" s="10" t="n">
-        <v>21</v>
-      </c>
-      <c r="C19" s="10" t="n">
-        <v>22</v>
-      </c>
-      <c r="D19" s="10" t="n">
-        <v>23</v>
-      </c>
-      <c r="E19" s="10" t="n">
-        <v>24</v>
-      </c>
-      <c r="F19" s="10" t="n">
-        <v>25</v>
-      </c>
-      <c r="G19" s="10" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10" t="n">
-        <v>27</v>
-      </c>
-      <c r="B20" s="10" t="n">
-        <v>28</v>
-      </c>
-      <c r="C20" s="10" t="n">
-        <v>29</v>
-      </c>
-      <c r="D20" s="10" t="n">
-        <v>30</v>
-      </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-    </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="M42" s="0"/>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="9">
     <mergeCell ref="A1:G1"/>
+    <mergeCell ref="O1:U1"/>
     <mergeCell ref="A6:G6"/>
+    <mergeCell ref="O6:U6"/>
     <mergeCell ref="A14:G14"/>
+    <mergeCell ref="O14:U14"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A35:G35"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Timetable.xlsx
+++ b/Timetable.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="51">
   <si>
     <t xml:space="preserve">Февраль</t>
   </si>
@@ -67,76 +67,101 @@
     <t xml:space="preserve">18 фев</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Тест Мантела, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ANOSIM, SIMPER</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">15.02 почему-то третья и четвертая пара</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 фев</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERMANOVA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Март</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 мар</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кластерный анализ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 мар</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основы линейной алгебры.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 мар</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eigen-decomposition, SVD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29 мар</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Апрель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 апр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 апр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 апр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Длинный вариант расписания</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nMDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 фев</t>
+  </si>
+  <si>
+    <t xml:space="preserve">envfit, ordisurf </t>
+  </si>
+  <si>
     <t xml:space="preserve">Связь между наборами данных. Тест Мантела</t>
   </si>
   <si>
-    <t xml:space="preserve">15.02 почему-то третья и четвертая пара</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22 фев</t>
+    <t xml:space="preserve">4 мар</t>
   </si>
   <si>
     <t xml:space="preserve">ANOSIM, SIMPER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Март</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 мар</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PERMANOVA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 мар</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кластерный анализ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">22 мар</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Основы линейной алгебры. SVD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29 мар</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Апрель</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 апр</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 апр</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19 апр</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nMDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25 фев</t>
-  </si>
-  <si>
-    <t xml:space="preserve">envfit, ordisurf </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 мар</t>
   </si>
   <si>
     <t xml:space="preserve">11 мар</t>
@@ -173,7 +198,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -210,6 +235,19 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFF3333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FFFF3333"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -224,7 +262,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,13 +278,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF9900"/>
-        <bgColor rgb="FFFFB029"/>
+        <bgColor rgb="FFFF9E00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB2B2B2"/>
         <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9E00"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
     <fill>
@@ -264,7 +308,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFB029"/>
-        <bgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFF9E00"/>
       </patternFill>
     </fill>
   </fills>
@@ -302,7 +346,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -359,7 +403,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -375,27 +419,39 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -403,15 +459,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -423,7 +479,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -483,7 +539,7 @@
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFB029"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFFF9E00"/>
       <rgbColor rgb="FF666666"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
@@ -504,10 +560,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W1048576"/>
+  <dimension ref="A1:W45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J17" activeCellId="0" sqref="J17"/>
+      <selection pane="topLeft" activeCell="H25" activeCellId="0" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -517,7 +573,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="7.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="2.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="2.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="42.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="35.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="4.44"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="6.54"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1015" min="16" style="1" width="6.54"/>
@@ -763,8 +819,8 @@
       <c r="J5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>9</v>
+      <c r="K5" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="L5" s="8" t="n">
         <v>4</v>
@@ -980,14 +1036,14 @@
         <v>14</v>
       </c>
       <c r="H10" s="6"/>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="7" t="s">
         <v>1</v>
       </c>
       <c r="J10" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="11" t="s">
-        <v>12</v>
+      <c r="K10" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="L10" s="8" t="n">
         <v>6</v>
@@ -996,10 +1052,10 @@
         <v>23</v>
       </c>
       <c r="N10" s="3"/>
-      <c r="O10" s="18" t="n">
+      <c r="O10" s="20" t="n">
         <v>8</v>
       </c>
-      <c r="P10" s="20" t="n">
+      <c r="P10" s="21" t="n">
         <v>9</v>
       </c>
       <c r="Q10" s="6" t="n">
@@ -1019,7 +1075,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="n">
+      <c r="A11" s="22" t="n">
         <v>15</v>
       </c>
       <c r="B11" s="0" t="n">
@@ -1053,14 +1109,14 @@
       <c r="L11" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="M11" s="8" t="s">
+      <c r="M11" s="23" t="s">
         <v>25</v>
       </c>
       <c r="N11" s="3"/>
       <c r="O11" s="13" t="n">
         <v>15</v>
       </c>
-      <c r="P11" s="20" t="n">
+      <c r="P11" s="21" t="n">
         <v>16</v>
       </c>
       <c r="Q11" s="6" t="n">
@@ -1080,7 +1136,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="21" t="n">
+      <c r="A12" s="9" t="n">
         <v>22</v>
       </c>
       <c r="B12" s="0" t="n">
@@ -1105,7 +1161,7 @@
       <c r="I12" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="J12" s="19" t="s">
+      <c r="J12" s="24" t="s">
         <v>26</v>
       </c>
       <c r="K12" s="11" t="s">
@@ -1118,10 +1174,10 @@
         <v>27</v>
       </c>
       <c r="N12" s="3"/>
-      <c r="O12" s="22" t="n">
+      <c r="O12" s="25" t="n">
         <v>22</v>
       </c>
-      <c r="P12" s="23" t="n">
+      <c r="P12" s="26" t="n">
         <v>23</v>
       </c>
       <c r="Q12" s="6" t="n">
@@ -1164,7 +1220,7 @@
       <c r="O13" s="13" t="n">
         <v>29</v>
       </c>
-      <c r="P13" s="23" t="n">
+      <c r="P13" s="26" t="n">
         <v>30</v>
       </c>
       <c r="Q13" s="6" t="n">
@@ -1284,7 +1340,7 @@
       <c r="J16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K16" s="24" t="s">
+      <c r="K16" s="27" t="s">
         <v>9</v>
       </c>
       <c r="L16" s="8" t="n">
@@ -1338,7 +1394,7 @@
       <c r="J17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K17" s="24" t="s">
+      <c r="K17" s="27" t="s">
         <v>9</v>
       </c>
       <c r="L17" s="8" t="n">
@@ -1350,7 +1406,7 @@
       <c r="O17" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="P17" s="23" t="n">
+      <c r="P17" s="26" t="n">
         <v>6</v>
       </c>
       <c r="Q17" s="6" t="n">
@@ -1395,7 +1451,7 @@
       <c r="O18" s="13" t="n">
         <v>12</v>
       </c>
-      <c r="P18" s="23" t="n">
+      <c r="P18" s="26" t="n">
         <v>13</v>
       </c>
       <c r="Q18" s="6" t="n">
@@ -1440,7 +1496,7 @@
       <c r="O19" s="13" t="n">
         <v>19</v>
       </c>
-      <c r="P19" s="23" t="n">
+      <c r="P19" s="26" t="n">
         <v>20</v>
       </c>
       <c r="Q19" s="6" t="n">
@@ -1481,7 +1537,7 @@
       <c r="O20" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="P20" s="23" t="n">
+      <c r="P20" s="26" t="n">
         <v>27</v>
       </c>
       <c r="Q20" s="6" t="n">
@@ -1496,331 +1552,280 @@
       <c r="T20" s="6"/>
       <c r="U20" s="6"/>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6"/>
+      <c r="B21" s="0"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6"/>
+      <c r="B22" s="0"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6"/>
+      <c r="B23" s="0"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="0"/>
-      <c r="M22" s="0"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="5" t="s">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="0"/>
+      <c r="M25" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="5" t="s">
+      <c r="D26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F26" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G26" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I23" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="J23" s="8" t="s">
+      <c r="I26" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J26" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K23" s="8"/>
-      <c r="L23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" s="8" t="s">
+      <c r="K26" s="8"/>
+      <c r="L26" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="n">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="B24" s="6" t="n">
+      <c r="B27" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="C24" s="6" t="n">
+      <c r="C27" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="D24" s="6" t="n">
+      <c r="D27" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="E24" s="10" t="n">
+      <c r="E27" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="F24" s="6" t="n">
+      <c r="F27" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="G24" s="10" t="n">
+      <c r="G27" s="10" t="n">
         <v>14</v>
       </c>
-      <c r="I24" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J24" s="8" t="s">
+      <c r="I27" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K24" s="8"/>
-      <c r="L24" s="6" t="n">
+      <c r="K27" s="8"/>
+      <c r="L27" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="M24" s="0"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="25" t="n">
+      <c r="M27" s="0"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="22" t="n">
         <v>15</v>
       </c>
-      <c r="B25" s="6" t="n">
+      <c r="B28" s="6" t="n">
         <v>16</v>
       </c>
-      <c r="C25" s="6" t="n">
+      <c r="C28" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="D25" s="25" t="n">
+      <c r="D28" s="22" t="n">
         <v>18</v>
       </c>
-      <c r="E25" s="10" t="n">
+      <c r="E28" s="10" t="n">
         <v>19</v>
       </c>
-      <c r="F25" s="6" t="n">
+      <c r="F28" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="G25" s="6" t="n">
+      <c r="G28" s="6" t="n">
         <v>21</v>
       </c>
-      <c r="I25" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="J25" s="26" t="s">
+      <c r="I28" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J28" s="29" t="s">
         <v>17</v>
-      </c>
-      <c r="K25" s="8"/>
-      <c r="L25" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="M25" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="27" t="n">
-        <v>22</v>
-      </c>
-      <c r="B26" s="6" t="n">
-        <v>23</v>
-      </c>
-      <c r="C26" s="6" t="n">
-        <v>24</v>
-      </c>
-      <c r="D26" s="27" t="n">
-        <v>25</v>
-      </c>
-      <c r="E26" s="10" t="n">
-        <v>26</v>
-      </c>
-      <c r="F26" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="G26" s="6" t="n">
-        <v>28</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J26" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="K26" s="0"/>
-      <c r="L26" s="28" t="n">
-        <v>4</v>
-      </c>
-      <c r="M26" s="29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="I27" s="0"/>
-      <c r="J27" s="0"/>
-      <c r="K27" s="0"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="0"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="J28" s="0" t="s">
-        <v>20</v>
       </c>
       <c r="K28" s="8"/>
       <c r="L28" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="30" t="n">
+        <v>22</v>
+      </c>
+      <c r="B29" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="C29" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="D29" s="30" t="n">
+        <v>25</v>
+      </c>
+      <c r="E29" s="10" t="n">
+        <v>26</v>
+      </c>
+      <c r="F29" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="G29" s="6" t="n">
+        <v>28</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="K29" s="0"/>
+      <c r="L29" s="31" t="n">
+        <v>4</v>
+      </c>
+      <c r="M29" s="32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="I30" s="0"/>
+      <c r="J30" s="0"/>
+      <c r="K30" s="0"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="0"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="M28" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="I29" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J29" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="K29" s="0"/>
-      <c r="L29" s="6" t="n">
+      <c r="F31" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M29" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="B30" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C30" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D30" s="25" t="n">
-        <v>4</v>
-      </c>
-      <c r="E30" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="F30" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="G30" s="6" t="n">
+      <c r="G31" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I30" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J30" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="K30" s="8"/>
-      <c r="L30" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="M30" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="18" t="n">
-        <v>8</v>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="C31" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="D31" s="27" t="n">
-        <v>11</v>
-      </c>
-      <c r="E31" s="6" t="n">
-        <v>12</v>
-      </c>
-      <c r="F31" s="6" t="n">
-        <v>13</v>
-      </c>
-      <c r="G31" s="6" t="n">
-        <v>14</v>
-      </c>
       <c r="I31" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="J31" s="26" t="s">
-        <v>22</v>
+      <c r="J31" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="K31" s="8"/>
       <c r="L31" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="M31" s="0"/>
+        <v>5</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="27" t="n">
-        <v>15</v>
-      </c>
-      <c r="B32" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="C32" s="6" t="n">
-        <v>17</v>
-      </c>
-      <c r="D32" s="27" t="n">
-        <v>18</v>
-      </c>
-      <c r="E32" s="6" t="n">
-        <v>19</v>
-      </c>
-      <c r="F32" s="6" t="n">
-        <v>20</v>
-      </c>
-      <c r="G32" s="6" t="n">
-        <v>21</v>
-      </c>
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
       <c r="I32" s="8" t="s">
         <v>4</v>
       </c>
@@ -1829,310 +1834,415 @@
       </c>
       <c r="K32" s="0"/>
       <c r="L32" s="6" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="30" t="n">
-        <v>22</v>
-      </c>
-      <c r="B33" s="0" t="n">
-        <v>23</v>
+      <c r="A33" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" s="6" t="n">
+        <v>2</v>
       </c>
       <c r="C33" s="6" t="n">
-        <v>24</v>
-      </c>
-      <c r="D33" s="5" t="n">
-        <v>25</v>
+        <v>3</v>
+      </c>
+      <c r="D33" s="22" t="n">
+        <v>4</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="K33" s="8"/>
       <c r="L33" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="20" t="n">
+        <v>8</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C34" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="M33" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="27" t="n">
+      <c r="D34" s="30" t="n">
+        <v>11</v>
+      </c>
+      <c r="E34" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="F34" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="G34" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J34" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="K34" s="8"/>
+      <c r="L34" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="M34" s="0"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="30" t="n">
+        <v>15</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C35" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D35" s="30" t="n">
+        <v>18</v>
+      </c>
+      <c r="E35" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="F35" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="G35" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="K35" s="0"/>
+      <c r="L35" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="33" t="n">
+        <v>22</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="C36" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="E36" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="F36" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="G36" s="6" t="n">
+        <v>28</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K36" s="8"/>
+      <c r="L36" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="M36" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="30" t="n">
         <v>29</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B37" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="C34" s="6" t="n">
+      <c r="C37" s="6" t="n">
         <v>31</v>
       </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="I34" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J34" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="K34" s="0"/>
-      <c r="L34" s="6" t="n">
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="I37" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="K37" s="0"/>
+      <c r="L37" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="M34" s="29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
+      <c r="M37" s="32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="I35" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="J35" s="26" t="s">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="I38" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J38" s="29" t="s">
         <v>26</v>
-      </c>
-      <c r="K35" s="8"/>
-      <c r="L35" s="6" t="n">
-        <v>12</v>
-      </c>
-      <c r="M35" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="8"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6"/>
-      <c r="B37" s="0"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F37" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="G37" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J37" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K37" s="8"/>
-      <c r="L37" s="6" t="n">
-        <v>13</v>
-      </c>
-      <c r="M37" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="27" t="n">
-        <v>5</v>
-      </c>
-      <c r="B38" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="C38" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="D38" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="E38" s="6" t="n">
-        <v>9</v>
-      </c>
-      <c r="F38" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="G38" s="6" t="n">
-        <v>11</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="J38" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="K38" s="8"/>
       <c r="L38" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="M38" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="8"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="6"/>
+      <c r="B40" s="0"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F40" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G40" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K40" s="8"/>
+      <c r="L40" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="M40" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="30" t="n">
+        <v>5</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C41" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D41" s="22" t="n">
+        <v>8</v>
+      </c>
+      <c r="E41" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F41" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G41" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K41" s="8"/>
+      <c r="L41" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="M38" s="8" t="s">
+      <c r="M41" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="27" t="n">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="30" t="n">
         <v>12</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B42" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="C39" s="6" t="n">
+      <c r="C42" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="D39" s="13" t="n">
+      <c r="D42" s="13" t="n">
         <v>15</v>
       </c>
-      <c r="E39" s="6" t="n">
+      <c r="E42" s="6" t="n">
         <v>16</v>
       </c>
-      <c r="F39" s="6" t="n">
+      <c r="F42" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="G39" s="6" t="n">
+      <c r="G42" s="6" t="n">
         <v>18</v>
       </c>
-      <c r="I39" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J39" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="K39" s="0"/>
-      <c r="L39" s="6" t="n">
+      <c r="I42" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="K42" s="0"/>
+      <c r="L42" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="M39" s="8" t="s">
+      <c r="M42" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="13" t="n">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="13" t="n">
         <v>19</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B43" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="C40" s="6" t="n">
+      <c r="C43" s="6" t="n">
         <v>21</v>
       </c>
-      <c r="D40" s="6" t="n">
+      <c r="D43" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="E40" s="6" t="n">
+      <c r="E43" s="6" t="n">
         <v>23</v>
       </c>
-      <c r="F40" s="6" t="n">
+      <c r="F43" s="6" t="n">
         <v>24</v>
       </c>
-      <c r="G40" s="6" t="n">
+      <c r="G43" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="I40" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="J40" s="8" t="s">
+      <c r="I43" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J43" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="K40" s="26"/>
-      <c r="L40" s="6" t="n">
+      <c r="K43" s="29"/>
+      <c r="L43" s="6" t="n">
         <v>16</v>
       </c>
-      <c r="M40" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6" t="n">
+      <c r="M43" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B44" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="C41" s="6" t="n">
+      <c r="C44" s="6" t="n">
         <v>28</v>
       </c>
-      <c r="D41" s="6" t="n">
+      <c r="D44" s="6" t="n">
         <v>29</v>
       </c>
-      <c r="E41" s="6" t="n">
+      <c r="E44" s="6" t="n">
         <v>30</v>
       </c>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="I41" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J41" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="K41" s="0"/>
-      <c r="L41" s="6" t="n">
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="I44" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="K44" s="0"/>
+      <c r="L44" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="M41" s="0"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I42" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="J42" s="8" t="s">
+      <c r="M44" s="0"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I45" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J45" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="K42" s="26"/>
-      <c r="L42" s="6" t="n">
+      <c r="K45" s="29"/>
+      <c r="L45" s="6" t="n">
         <v>18</v>
       </c>
-      <c r="M42" s="0"/>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="M45" s="0"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A1:G1"/>
@@ -2141,9 +2251,9 @@
     <mergeCell ref="O6:U6"/>
     <mergeCell ref="A14:G14"/>
     <mergeCell ref="O14:U14"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A38:G38"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Timetable.xlsx
+++ b/Timetable.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
   <si>
     <t xml:space="preserve">Multivar</t>
   </si>
@@ -52,7 +52,7 @@
     <t xml:space="preserve">вс</t>
   </si>
   <si>
-    <t xml:space="preserve">14 фев</t>
+    <t xml:space="preserve">13 фев</t>
   </si>
   <si>
     <t xml:space="preserve">В</t>
@@ -61,7 +61,7 @@
     <t xml:space="preserve">Знакомство с многомерными данными</t>
   </si>
   <si>
-    <t xml:space="preserve">17 фев</t>
+    <t xml:space="preserve">16 фев</t>
   </si>
   <si>
     <t xml:space="preserve">М</t>
@@ -70,13 +70,13 @@
     <t xml:space="preserve">nMDS, envfit, ordisurf </t>
   </si>
   <si>
-    <t xml:space="preserve">21 фев</t>
+    <t xml:space="preserve">20 фев</t>
   </si>
   <si>
     <t xml:space="preserve">Тест Мантела, ANOSIM, SIMPER</t>
   </si>
   <si>
-    <t xml:space="preserve">24 фев</t>
+    <t xml:space="preserve">27 фев</t>
   </si>
   <si>
     <t xml:space="preserve">PERMANOVA </t>
@@ -85,58 +85,55 @@
     <t xml:space="preserve">Март</t>
   </si>
   <si>
-    <t xml:space="preserve">3 мар</t>
+    <t xml:space="preserve">2 мар</t>
   </si>
   <si>
     <t xml:space="preserve">Кластерный анализ </t>
   </si>
   <si>
-    <t xml:space="preserve">10 мар</t>
+    <t xml:space="preserve">6 мар</t>
   </si>
   <si>
     <t xml:space="preserve">Основы линейной алгебры.</t>
   </si>
   <si>
-    <t xml:space="preserve">ПН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 мар</t>
+    <t xml:space="preserve">9 мар</t>
   </si>
   <si>
     <t xml:space="preserve">Eigen-decomposition, SVD</t>
   </si>
   <si>
-    <t xml:space="preserve">21 мар</t>
+    <t xml:space="preserve">13 мар</t>
   </si>
   <si>
     <t xml:space="preserve">PCA</t>
   </si>
   <si>
-    <t xml:space="preserve">31 мар</t>
+    <t xml:space="preserve">16 мар</t>
   </si>
   <si>
     <t xml:space="preserve">CA</t>
   </si>
   <si>
+    <t xml:space="preserve">20 мар</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 мар</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 мар</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dbRDA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Апрель</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 апр</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 апр</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21 апр</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dbRDA</t>
   </si>
 </sst>
 </file>
@@ -146,7 +143,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -189,20 +186,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="10"/>
-      <color rgb="FFFF3333"/>
+      <color rgb="FFC9211E"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,14 +202,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
-        <bgColor rgb="FFFFFF70"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF6D"/>
-        <bgColor rgb="FFFFFF70"/>
+        <fgColor rgb="FFFFFFA6"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -241,14 +226,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF70"/>
-        <bgColor rgb="FFFFFF6D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF6D"/>
+        <fgColor rgb="FFFFDE59"/>
+        <bgColor rgb="FFFFFFA6"/>
       </patternFill>
     </fill>
   </fills>
@@ -286,7 +265,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -311,7 +290,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -335,31 +314,51 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -375,28 +374,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -412,7 +395,7 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF3333"/>
+      <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -428,7 +411,7 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFF70"/>
+      <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -436,7 +419,7 @@
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF6D"/>
+      <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -445,11 +428,11 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFFFFFA6"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFDE59"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -462,7 +445,7 @@
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFC9211E"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -476,10 +459,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y24"/>
+  <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M24" activeCellId="0" sqref="A5:M24"/>
+      <selection pane="topLeft" activeCell="R15" activeCellId="0" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -552,7 +535,7 @@
     <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4"/>
       <c r="B3" s="7" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -682,34 +665,34 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="n">
+        <v>13</v>
+      </c>
+      <c r="B7" s="9" t="n">
         <v>14</v>
       </c>
-      <c r="B7" s="9" t="n">
+      <c r="C7" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="C7" s="9" t="n">
+      <c r="D7" s="13" t="n">
         <v>16</v>
       </c>
-      <c r="D7" s="13" t="n">
+      <c r="E7" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="E7" s="14" t="n">
+      <c r="F7" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="F7" s="9" t="n">
+      <c r="G7" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="G7" s="9" t="n">
-        <v>20</v>
-      </c>
       <c r="H7" s="3"/>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="14" t="s">
         <v>14</v>
       </c>
       <c r="L7" s="11" t="n">
@@ -731,26 +714,26 @@
       <c r="Y7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16" t="n">
+      <c r="A8" s="15" t="n">
+        <v>20</v>
+      </c>
+      <c r="B8" s="9" t="n">
         <v>21</v>
       </c>
-      <c r="B8" s="9" t="n">
+      <c r="C8" s="9" t="n">
         <v>22</v>
       </c>
-      <c r="C8" s="17" t="n">
+      <c r="D8" s="16" t="n">
         <v>23</v>
       </c>
-      <c r="D8" s="18" t="n">
+      <c r="E8" s="9" t="n">
         <v>24</v>
       </c>
-      <c r="E8" s="14" t="n">
+      <c r="F8" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="F8" s="9" t="n">
+      <c r="G8" s="9" t="n">
         <v>26</v>
-      </c>
-      <c r="G8" s="9" t="n">
-        <v>27</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="10" t="s">
@@ -777,23 +760,25 @@
       <c r="U8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="17" t="n">
+        <v>27</v>
+      </c>
+      <c r="B9" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="B9" s="0"/>
       <c r="C9" s="0"/>
       <c r="D9" s="0"/>
       <c r="E9" s="0"/>
       <c r="F9" s="0"/>
       <c r="G9" s="0"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="J9" s="20" t="s">
+      <c r="I9" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="14" t="s">
         <v>14</v>
       </c>
       <c r="L9" s="11" t="n">
@@ -843,273 +828,297 @@
         <v>9</v>
       </c>
       <c r="H11" s="9"/>
-      <c r="I11" s="0"/>
-      <c r="J11" s="0"/>
-      <c r="K11" s="0"/>
-      <c r="L11" s="0"/>
-      <c r="M11" s="0"/>
+      <c r="I11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="9"/>
-      <c r="B12" s="9" t="n">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="9" t="n">
+      <c r="D12" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="D12" s="13" t="n">
+      <c r="E12" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="E12" s="9" t="n">
+      <c r="F12" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="F12" s="9" t="n">
+      <c r="G12" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="G12" s="9" t="n">
+      <c r="H12" s="9"/>
+      <c r="I12" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="15" t="s">
+      <c r="M12" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="J12" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="L12" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="21" t="n">
+      <c r="B13" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="B13" s="17" t="n">
+      <c r="C13" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="C13" s="9" t="n">
+      <c r="D13" s="12" t="n">
         <v>9</v>
       </c>
-      <c r="D13" s="12" t="n">
+      <c r="E13" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="E13" s="9" t="n">
+      <c r="F13" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="F13" s="9" t="n">
+      <c r="G13" s="9" t="n">
         <v>12</v>
-      </c>
-      <c r="G13" s="9" t="n">
-        <v>13</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J13" s="22" t="s">
-        <v>23</v>
+      <c r="J13" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="K13" s="10" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>24</v>
+        <v>7</v>
+      </c>
+      <c r="M13" s="22" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="23" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="n">
         <v>14</v>
       </c>
-      <c r="B14" s="9" t="n">
+      <c r="C14" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="C14" s="9" t="n">
+      <c r="D14" s="12" t="n">
         <v>16</v>
       </c>
-      <c r="D14" s="21" t="n">
+      <c r="E14" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="E14" s="9" t="n">
+      <c r="F14" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="F14" s="9" t="n">
+      <c r="G14" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="G14" s="9" t="n">
+      <c r="H14" s="9"/>
+      <c r="I14" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="23" t="n">
         <v>20</v>
       </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="10" t="s">
+      <c r="B15" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="C15" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="D15" s="12" t="n">
+        <v>23</v>
+      </c>
+      <c r="E15" s="9" t="n">
+        <v>24</v>
+      </c>
+      <c r="F15" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="G15" s="9" t="n">
         <v>26</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="H15" s="9"/>
+      <c r="I15" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="L14" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="M14" s="24" t="s">
+      <c r="L15" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="23" t="n">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13" t="n">
-        <v>21</v>
-      </c>
-      <c r="B15" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="C15" s="9" t="n">
-        <v>23</v>
-      </c>
-      <c r="D15" s="21" t="n">
-        <v>24</v>
-      </c>
-      <c r="E15" s="9" t="n">
-        <v>25</v>
-      </c>
-      <c r="F15" s="9" t="n">
-        <v>26</v>
-      </c>
-      <c r="G15" s="9" t="n">
-        <v>27</v>
-      </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="J15" s="25" t="s">
+      <c r="B16" s="9" t="n">
         <v>28</v>
       </c>
-      <c r="K15" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="L15" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="M15" s="11" t="s">
+      <c r="C16" s="9" t="n">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="21" t="n">
-        <v>28</v>
-      </c>
-      <c r="B16" s="9" t="n">
-        <v>29</v>
-      </c>
-      <c r="C16" s="9" t="n">
+      <c r="D16" s="26" t="n">
         <v>30</v>
       </c>
-      <c r="D16" s="12" t="n">
+      <c r="E16" s="9" t="n">
         <v>31</v>
       </c>
-      <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
-      <c r="I16" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K16" s="26" t="s">
+      <c r="I16" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" s="24" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="27"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
+      <c r="I17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="A18" s="0"/>
+      <c r="B18" s="0"/>
+      <c r="C18" s="0"/>
+      <c r="D18" s="0"/>
+      <c r="E18" s="0"/>
+      <c r="F18" s="0"/>
+      <c r="G18" s="0"/>
       <c r="H18" s="9"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
+      <c r="I18" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="A19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
       <c r="H19" s="9"/>
-      <c r="I19" s="0"/>
-      <c r="J19" s="0"/>
-      <c r="K19" s="0"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="28"/>
       <c r="L19" s="0"/>
       <c r="M19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="21"/>
-      <c r="B20" s="0"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="G20" s="9" t="n">
+      <c r="A20" s="8" t="s">
         <v>3</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="0"/>
@@ -1119,82 +1128,52 @@
       <c r="M20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="21" t="n">
+      <c r="A21" s="9"/>
+      <c r="B21" s="0"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H21" s="9"/>
+      <c r="I21" s="0"/>
+      <c r="J21" s="0"/>
+      <c r="K21" s="0"/>
+      <c r="L21" s="0"/>
+      <c r="M21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B22" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="C22" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="C21" s="9" t="n">
+      <c r="D22" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="D21" s="13" t="n">
+      <c r="E22" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="E21" s="9" t="n">
+      <c r="F22" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="F21" s="9" t="n">
+      <c r="G22" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="G21" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="J21" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="K21" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="L21" s="11" t="n">
-        <v>10</v>
-      </c>
-      <c r="M21" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="21" t="n">
-        <v>11</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="C22" s="9" t="n">
-        <v>13</v>
-      </c>
-      <c r="D22" s="12" t="n">
-        <v>14</v>
-      </c>
-      <c r="E22" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="F22" s="9" t="n">
-        <v>16</v>
-      </c>
-      <c r="G22" s="9" t="n">
-        <v>17</v>
-      </c>
       <c r="H22" s="9"/>
-      <c r="I22" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="K22" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="L22" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="M22" s="11" t="s">
-        <v>36</v>
-      </c>
+      <c r="I22" s="0"/>
+      <c r="J22" s="0"/>
+      <c r="K22" s="0"/>
+      <c r="L22" s="0"/>
+      <c r="M22" s="0"/>
       <c r="N22" s="0"/>
       <c r="O22" s="0"/>
       <c r="P22" s="0"/>
@@ -1202,65 +1181,80 @@
       <c r="R22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="21" t="n">
-        <v>18</v>
+      <c r="A23" s="9" t="n">
+        <v>10</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C23" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="D23" s="13" t="n">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="D23" s="26" t="n">
+        <v>13</v>
       </c>
       <c r="E23" s="9" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F23" s="9" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G23" s="9" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H23" s="9"/>
-      <c r="I23" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="J23" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="K23" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="L23" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="M23" s="0" t="s">
-        <v>38</v>
-      </c>
+      <c r="I23" s="0"/>
+      <c r="J23" s="0"/>
+      <c r="K23" s="0"/>
+      <c r="L23" s="0"/>
+      <c r="M23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="C24" s="9" t="n">
+        <v>19</v>
+      </c>
+      <c r="D24" s="26" t="n">
+        <v>20</v>
+      </c>
+      <c r="E24" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="G24" s="9" t="n">
+        <v>23</v>
+      </c>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="C25" s="9" t="n">
         <v>26</v>
       </c>
-      <c r="C24" s="9" t="n">
+      <c r="D25" s="9" t="n">
         <v>27</v>
       </c>
-      <c r="D24" s="9" t="n">
+      <c r="E25" s="9" t="n">
         <v>28</v>
       </c>
-      <c r="E24" s="9" t="n">
+      <c r="F25" s="9" t="n">
         <v>29</v>
       </c>
-      <c r="F24" s="9" t="n">
+      <c r="G25" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1268,11 +1262,11 @@
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A19:G19"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/Timetable.xlsx
+++ b/Timetable.xlsx
@@ -20,15 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="37">
   <si>
     <t xml:space="preserve">Multivar</t>
   </si>
   <si>
     <t xml:space="preserve">Февраль</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Весна 2022</t>
   </si>
   <si>
     <t xml:space="preserve">пн</t>
@@ -265,7 +262,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -368,14 +365,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -462,7 +451,7 @@
   <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R15" activeCellId="0" sqref="R15"/>
+      <selection pane="topLeft" activeCell="M5" activeCellId="0" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -598,9 +587,7 @@
       <c r="J5" s="0"/>
       <c r="K5" s="0"/>
       <c r="L5" s="0"/>
-      <c r="M5" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="M5" s="5"/>
       <c r="O5" s="0"/>
       <c r="P5" s="0"/>
       <c r="Q5" s="0"/>
@@ -615,41 +602,41 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="E6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="F6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="G6" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="10" t="s">
         <v>10</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="L6" s="11" t="n">
         <v>1</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O6" s="0"/>
       <c r="P6" s="0"/>
@@ -687,19 +674,19 @@
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="14" t="s">
         <v>13</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>14</v>
       </c>
       <c r="L7" s="11" t="n">
         <v>2</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O7" s="0"/>
       <c r="P7" s="0"/>
@@ -737,19 +724,19 @@
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L8" s="11" t="n">
         <v>3</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O8" s="9"/>
       <c r="P8" s="0"/>
@@ -773,24 +760,24 @@
       <c r="G9" s="0"/>
       <c r="H9" s="3"/>
       <c r="I9" s="18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L9" s="11" t="n">
         <v>4</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -807,41 +794,41 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="C11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="D11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="E11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="F11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="G11" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L11" s="11" t="n">
         <v>5</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -864,19 +851,19 @@
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L12" s="11" t="n">
         <v>6</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -903,19 +890,19 @@
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L13" s="11" t="n">
         <v>7</v>
       </c>
       <c r="M13" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -942,19 +929,19 @@
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J14" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K14" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L14" s="11" t="n">
         <v>8</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -981,19 +968,19 @@
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K15" s="21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L15" s="11" t="n">
         <v>9</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1006,7 +993,7 @@
       <c r="C16" s="9" t="n">
         <v>29</v>
       </c>
-      <c r="D16" s="26" t="n">
+      <c r="D16" s="9" t="n">
         <v>30</v>
       </c>
       <c r="E16" s="9" t="n">
@@ -1016,19 +1003,19 @@
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K16" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L16" s="11" t="n">
         <v>10</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1041,19 +1028,19 @@
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K17" s="21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L17" s="11" t="n">
         <v>11</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1066,24 +1053,24 @@
       <c r="G18" s="0"/>
       <c r="H18" s="9"/>
       <c r="I18" s="24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K18" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L18" s="0" t="n">
         <v>12</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1092,33 +1079,33 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="9"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="28"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="26"/>
       <c r="L19" s="0"/>
       <c r="M19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="C20" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="D20" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="E20" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="F20" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="G20" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="0"/>
@@ -1156,7 +1143,7 @@
       <c r="C22" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="D22" s="26" t="n">
+      <c r="D22" s="9" t="n">
         <v>6</v>
       </c>
       <c r="E22" s="9" t="n">
@@ -1190,7 +1177,7 @@
       <c r="C23" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="D23" s="26" t="n">
+      <c r="D23" s="9" t="n">
         <v>13</v>
       </c>
       <c r="E23" s="9" t="n">
@@ -1219,7 +1206,7 @@
       <c r="C24" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="D24" s="26" t="n">
+      <c r="D24" s="9" t="n">
         <v>20</v>
       </c>
       <c r="E24" s="9" t="n">

--- a/Timetable.xlsx
+++ b/Timetable.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="37">
   <si>
     <t xml:space="preserve">Multivar</t>
   </si>
@@ -82,10 +82,10 @@
     <t xml:space="preserve">Март</t>
   </si>
   <si>
-    <t xml:space="preserve">2 мар</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кластерный анализ </t>
+    <t xml:space="preserve">2 марта</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проект на Stepik</t>
   </si>
   <si>
     <t xml:space="preserve">6 мар</t>
@@ -112,25 +112,25 @@
     <t xml:space="preserve">CA</t>
   </si>
   <si>
-    <t xml:space="preserve">20 мар</t>
+    <t xml:space="preserve">Апрель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 апр</t>
   </si>
   <si>
     <t xml:space="preserve">RDA</t>
   </si>
   <si>
-    <t xml:space="preserve">23 мар</t>
+    <t xml:space="preserve">6 апр</t>
   </si>
   <si>
     <t xml:space="preserve">CCA</t>
   </si>
   <si>
-    <t xml:space="preserve">27 мар</t>
+    <t xml:space="preserve">10 апр</t>
   </si>
   <si>
     <t xml:space="preserve">dbRDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Апрель</t>
   </si>
 </sst>
 </file>
@@ -343,7 +343,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -351,12 +351,12 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -451,7 +451,7 @@
   <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M5" activeCellId="0" sqref="M5"/>
+      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -815,21 +815,11 @@
         <v>8</v>
       </c>
       <c r="H11" s="9"/>
-      <c r="I11" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>21</v>
-      </c>
+      <c r="I11" s="0"/>
+      <c r="J11" s="0"/>
+      <c r="K11" s="0"/>
+      <c r="L11" s="0"/>
+      <c r="M11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="9"/>
@@ -850,20 +840,14 @@
         <v>5</v>
       </c>
       <c r="H12" s="9"/>
-      <c r="I12" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="J12" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>23</v>
+      <c r="I12" s="0"/>
+      <c r="J12" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="0"/>
+      <c r="L12" s="0"/>
+      <c r="M12" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -890,23 +874,23 @@
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>24</v>
+        <v>2</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="K13" s="10" t="s">
         <v>10</v>
       </c>
       <c r="L13" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="M13" s="22" t="s">
-        <v>25</v>
+        <v>6</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="23" t="n">
+      <c r="A14" s="22" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="9" t="n">
@@ -928,24 +912,24 @@
         <v>19</v>
       </c>
       <c r="H14" s="9"/>
-      <c r="I14" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="J14" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="K14" s="24" t="s">
+      <c r="I14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="10" t="s">
         <v>10</v>
       </c>
       <c r="L14" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="M14" s="11" t="s">
-        <v>27</v>
+        <v>7</v>
+      </c>
+      <c r="M14" s="23" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="23" t="n">
+      <c r="A15" s="20" t="n">
         <v>20</v>
       </c>
       <c r="B15" s="9" t="n">
@@ -954,7 +938,7 @@
       <c r="C15" s="9" t="n">
         <v>22</v>
       </c>
-      <c r="D15" s="12" t="n">
+      <c r="D15" s="20" t="n">
         <v>23</v>
       </c>
       <c r="E15" s="9" t="n">
@@ -967,24 +951,24 @@
         <v>26</v>
       </c>
       <c r="H15" s="9"/>
-      <c r="I15" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="21" t="s">
+      <c r="I15" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="24" t="s">
         <v>10</v>
       </c>
       <c r="L15" s="11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="23" t="n">
+      <c r="A16" s="20" t="n">
         <v>27</v>
       </c>
       <c r="B16" s="9" t="n">
@@ -1002,20 +986,20 @@
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
-      <c r="I16" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="J16" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="K16" s="24" t="s">
+      <c r="I16" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="21" t="s">
         <v>10</v>
       </c>
       <c r="L16" s="11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1027,21 +1011,11 @@
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K17" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="L17" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="M17" s="11" t="s">
-        <v>33</v>
-      </c>
+      <c r="I17" s="0"/>
+      <c r="J17" s="0"/>
+      <c r="K17" s="0"/>
+      <c r="L17" s="0"/>
+      <c r="M17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0"/>
@@ -1052,25 +1026,15 @@
       <c r="F18" s="0"/>
       <c r="G18" s="0"/>
       <c r="H18" s="9"/>
-      <c r="I18" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="J18" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="K18" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="L18" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="M18" s="0" t="s">
-        <v>35</v>
-      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="0"/>
+      <c r="M18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1079,9 +1043,9 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="9"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="26"/>
+      <c r="I19" s="0"/>
+      <c r="J19" s="0"/>
+      <c r="K19" s="0"/>
       <c r="L19" s="0"/>
       <c r="M19" s="0"/>
     </row>
@@ -1127,14 +1091,24 @@
         <v>2</v>
       </c>
       <c r="H21" s="9"/>
-      <c r="I21" s="0"/>
-      <c r="J21" s="0"/>
-      <c r="K21" s="0"/>
-      <c r="L21" s="0"/>
-      <c r="M21" s="0"/>
+      <c r="I21" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="J21" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="K21" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="n">
+      <c r="A22" s="22" t="n">
         <v>3</v>
       </c>
       <c r="B22" s="0" t="n">
@@ -1143,7 +1117,7 @@
       <c r="C22" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="D22" s="9" t="n">
+      <c r="D22" s="12" t="n">
         <v>6</v>
       </c>
       <c r="E22" s="9" t="n">
@@ -1156,11 +1130,21 @@
         <v>9</v>
       </c>
       <c r="H22" s="9"/>
-      <c r="I22" s="0"/>
-      <c r="J22" s="0"/>
-      <c r="K22" s="0"/>
-      <c r="L22" s="0"/>
-      <c r="M22" s="0"/>
+      <c r="I22" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K22" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="N22" s="0"/>
       <c r="O22" s="0"/>
       <c r="P22" s="0"/>
@@ -1168,7 +1152,7 @@
       <c r="R22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="n">
+      <c r="A23" s="22" t="n">
         <v>10</v>
       </c>
       <c r="B23" s="0" t="n">
@@ -1190,11 +1174,21 @@
         <v>16</v>
       </c>
       <c r="H23" s="9"/>
-      <c r="I23" s="0"/>
-      <c r="J23" s="0"/>
-      <c r="K23" s="0"/>
-      <c r="L23" s="0"/>
-      <c r="M23" s="0"/>
+      <c r="I23" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="K23" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="M23" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="n">
